--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/elisa_jimenez_uclm_es/Documents/Elisa/Estudio instagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_54B32216BAFD86A3B026F5EC6513BB16F02788D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0991B4-B089-4199-B1CE-B83358AE1D44}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_54B32216BAFD86A3B026F5EC6513BB16F02788D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46187D0-D048-41ED-9CED-C2BAA7272749}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablet comparison" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="61">
   <si>
     <t>Caso</t>
   </si>
@@ -51,31 +51,16 @@
     <t>Publicación</t>
   </si>
   <si>
-    <t>Foto</t>
-  </si>
-  <si>
     <t>Reels</t>
   </si>
   <si>
-    <t>Historias</t>
-  </si>
-  <si>
     <t>Historia</t>
-  </si>
-  <si>
-    <t>DUT … % Foto</t>
-  </si>
-  <si>
-    <t>Foto Comentario</t>
   </si>
   <si>
     <t>Consumo</t>
   </si>
   <si>
     <t>DUT … % Video 15s</t>
-  </si>
-  <si>
-    <t>DUT … % Cotidiano</t>
   </si>
   <si>
     <t>TABLET</t>
@@ -90,79 +75,19 @@
     <t>DUT PC % Tablet</t>
   </si>
   <si>
-    <t>Time (%) SE1 vs. demas</t>
-  </si>
-  <si>
-    <t>DUT (%) SE1 vs. demas</t>
-  </si>
-  <si>
-    <t>Video vs. demás</t>
-  </si>
-  <si>
     <t>Time (%)</t>
   </si>
   <si>
     <t>DUT(%)</t>
   </si>
   <si>
-    <t>Time (%) SE8 vs. demas</t>
-  </si>
-  <si>
-    <t>DUT (%) SE8 vs. demas</t>
-  </si>
-  <si>
-    <t>Time(%) repecto tSE15</t>
-  </si>
-  <si>
-    <t>DUT(%) respecto tSE15</t>
-  </si>
-  <si>
-    <t>Publicación vs. Historia</t>
-  </si>
-  <si>
-    <t>Incremento PC</t>
-  </si>
-  <si>
-    <t>SE1</t>
-  </si>
-  <si>
-    <t>SE2</t>
-  </si>
-  <si>
-    <t>SE3</t>
-  </si>
-  <si>
-    <t>Foto y texto</t>
-  </si>
-  <si>
-    <t>Fotoy musica</t>
-  </si>
-  <si>
-    <t>Foto, txto, musica</t>
-  </si>
-  <si>
-    <t>Foto, efec, musi</t>
-  </si>
-  <si>
-    <t>Foto, efec din, musica</t>
-  </si>
-  <si>
     <t>Video 15 seg</t>
-  </si>
-  <si>
-    <t>Foto y comentario</t>
-  </si>
-  <si>
-    <t>Foto, comentario y efecto</t>
   </si>
   <si>
     <t>Video 15 seg.</t>
   </si>
   <si>
     <t>Reel 15 seg.</t>
-  </si>
-  <si>
-    <t>Uso diario</t>
   </si>
   <si>
     <t>Time PC % Tablet</t>
@@ -223,6 +148,78 @@
   </si>
   <si>
     <t>TestCase</t>
+  </si>
+  <si>
+    <t>Storie</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>Photo + comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC increment </t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>Stories</t>
+  </si>
+  <si>
+    <t>Visualisation</t>
+  </si>
+  <si>
+    <t>Photo + text</t>
+  </si>
+  <si>
+    <t>Photo, text and effect</t>
+  </si>
+  <si>
+    <t>Photo and music</t>
+  </si>
+  <si>
+    <t>Photo + text + music</t>
+  </si>
+  <si>
+    <t>photo + static effect + music</t>
+  </si>
+  <si>
+    <t>photo + dynamic effect + music</t>
+  </si>
+  <si>
+    <t>Video vs. Other</t>
+  </si>
+  <si>
+    <t>Time (%) Action1 vs. Action n</t>
+  </si>
+  <si>
+    <t>DUT (%) Action 1 vs. Action n</t>
+  </si>
+  <si>
+    <t>DUT … % Photo</t>
+  </si>
+  <si>
+    <t>DUT … % Visualisation</t>
+  </si>
+  <si>
+    <t>Time(%) with respect action 15</t>
+  </si>
+  <si>
+    <t>DUT(%) with respect action 15</t>
+  </si>
+  <si>
+    <t>Time (%)action 8 vs. Action n</t>
+  </si>
+  <si>
+    <t>DUT (%) action 8 vs. Action n</t>
+  </si>
+  <si>
+    <t>Post vs. Storie</t>
   </si>
 </sst>
 </file>
@@ -979,7 +976,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$D$6</c:f>
+              <c:f>'Tablet comparison'!$D$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1002,16 +999,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Tablet comparison'!$C$20:$C$26</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Tablet comparison'!$C$20:$C$25</c:f>
+              <c:f>'Tablet comparison'!$C$20:$C$26</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Action1</c:v>
                 </c:pt>
@@ -1029,23 +1019,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Action6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Action7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Tablet comparison'!$D$20:$D$26</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Tablet comparison'!$D$20:$D$25</c:f>
+              <c:f>'Tablet comparison'!$D$20:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>18.061499999999999</c:v>
                 </c:pt>
@@ -1063,6 +1049,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>137.54939999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44.999900000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1079,7 +1068,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$E$6</c:f>
+              <c:f>'Tablet comparison'!$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1102,16 +1091,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Tablet comparison'!$C$20:$C$26</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Tablet comparison'!$C$20:$C$25</c:f>
+              <c:f>'Tablet comparison'!$C$20:$C$26</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Action1</c:v>
                 </c:pt>
@@ -1129,23 +1111,19 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>Action6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Action7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Tablet comparison'!$E$20:$E$26</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Tablet comparison'!$E$20:$E$25</c:f>
+              <c:f>'Tablet comparison'!$E$20:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>27.402813402450501</c:v>
                 </c:pt>
@@ -1163,6 +1141,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>218.78876086476899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.646507260000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1441,9 +1422,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1460,15 +1440,17 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Tablet comparison'!$C$8:$C$10</c:f>
@@ -1504,6 +1486,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1FBA-451E-BDCF-CFCBCE854CAC}"/>
@@ -1518,13 +1501,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:smooth val="0"/>
         <c:axId val="1880108703"/>
         <c:axId val="1880106207"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
+            <c15:filteredLineSeries>
               <c15:ser>
                 <c:idx val="0"/>
                 <c:order val="0"/>
@@ -1546,15 +1528,17 @@
                   </c:strRef>
                 </c:tx>
                 <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
                   </a:ln>
                   <a:effectLst/>
                 </c:spPr>
-                <c:invertIfNegative val="0"/>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
                 <c:cat>
                   <c:strRef>
                     <c:extLst>
@@ -1602,16 +1586,17 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-1FBA-451E-BDCF-CFCBCE854CAC}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
-            </c15:filteredBarSeries>
+            </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1880108703"/>
         <c:scaling>
@@ -2872,9 +2857,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2886,86 +2870,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>DUT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Tablet vs. PC'!$C$20:$C$22</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Action16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Action17</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Action18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Tablet vs. PC'!$E$20:$E$22</c:f>
-              <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1937.19328815122</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3681.7676045338599</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5608.2858642327901</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C9CF-4610-A539-87BBB645E298}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:axId val="163988464"/>
-        <c:axId val="163988944"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Tablet vs. PC'!$D$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time (s)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3001,6 +2905,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>'Tablet vs. PC'!$E$20:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1937.19328815122</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3681.7676045338599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5608.2858642327901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C9CF-4610-A539-87BBB645E298}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="163988464"/>
+        <c:axId val="163988944"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tablet vs. PC'!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tablet vs. PC'!$C$20:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Action16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Action17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Action18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>'Tablet vs. PC'!$D$20:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
@@ -3034,8 +3022,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156781808"/>
-        <c:axId val="156788048"/>
+        <c:axId val="1045643776"/>
+        <c:axId val="1045638976"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="163988464"/>
@@ -3109,7 +3097,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3145,13 +3133,13 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156788048"/>
+        <c:axId val="1045638976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3182,12 +3170,12 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156781808"/>
+        <c:crossAx val="1045643776"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="156781808"/>
+        <c:axId val="1045643776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3197,7 +3185,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156788048"/>
+        <c:crossAx val="1045638976"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -7335,13 +7324,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7367,6 +7356,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7669,8 +7662,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B4:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7684,7 +7677,7 @@
   <sheetData>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N4" s="25" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="O4" s="25"/>
       <c r="P4" s="24"/>
@@ -7694,7 +7687,7 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>2</v>
@@ -7703,13 +7696,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="O6" s="11" t="s">
         <v>2</v>
@@ -7718,26 +7711,26 @@
         <v>1</v>
       </c>
       <c r="R6" s="24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="S6" s="24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="J7" s="24" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="R7" s="1">
         <f t="shared" ref="R7:S9" si="0">((O8-O12)/O12)*100</f>
@@ -7750,10 +7743,10 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D8" s="9">
         <v>120</v>
@@ -7766,7 +7759,7 @@
         <v>-10.9351510725098</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="O8" s="9">
         <v>17.769777777777801</v>
@@ -7785,10 +7778,10 @@
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="D9" s="9">
         <v>120</v>
@@ -7809,7 +7802,7 @@
         <v>2.3502392581449838</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="O9" s="2">
         <v>29.619</v>
@@ -7828,10 +7821,10 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D10" s="17">
         <v>120</v>
@@ -7849,7 +7842,7 @@
         <v>10.182306658990591</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="O10" s="9">
         <v>54.589700000000001</v>
@@ -7860,7 +7853,7 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="N11" s="8" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
@@ -7868,7 +7861,7 @@
         <v>3</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="O12" s="10">
         <v>18.061499999999999</v>
@@ -7879,10 +7872,10 @@
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D13" s="9">
         <v>17.769777777777801</v>
@@ -7894,13 +7887,13 @@
         <v>-5.2956751451685102</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="O13" s="2">
         <v>29.971799999999899</v>
@@ -7911,10 +7904,10 @@
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D14" s="2">
         <v>29.619</v>
@@ -7934,7 +7927,7 @@
         <v>53.774206379393988</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="O14" s="19">
         <v>44.999900000000004</v>
@@ -7945,10 +7938,10 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D15" s="9">
         <v>32.011333329999999</v>
@@ -7970,10 +7963,10 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D16" s="9">
         <v>54.589700000000001</v>
@@ -7995,10 +7988,10 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="D17" s="4">
         <v>100.1165</v>
@@ -8020,18 +8013,24 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C19" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>1</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D20" s="10">
         <v>18.061499999999999</v>
@@ -8040,24 +8039,24 @@
         <v>27.402813402450501</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="H20" s="24" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
         <v>29.971799999999899</v>
@@ -8085,10 +8084,10 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>65.845299999999995</v>
@@ -8116,10 +8115,10 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2">
         <v>74.474199999999996</v>
@@ -8147,10 +8146,10 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2">
         <v>80.287999999999997</v>
@@ -8178,10 +8177,10 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
         <v>137.54939999999999</v>
@@ -8209,10 +8208,10 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D26" s="19">
         <v>44.999900000000004</v>
@@ -8246,10 +8245,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B4:N22"/>
+  <dimension ref="C4:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8258,21 +8257,21 @@
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K4" s="27" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="D5" s="29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="29"/>
       <c r="F5" s="30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G5" s="30"/>
       <c r="K5" s="26"/>
@@ -8280,7 +8279,7 @@
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="13" t="s">
         <v>0</v>
       </c>
@@ -8297,29 +8296,26 @@
         <v>1</v>
       </c>
       <c r="H6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="28" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="22" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D8" s="2">
         <v>17.769777777777701</v>
@@ -8342,12 +8338,9 @@
         <v>7364.6249126586044</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="23" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2">
         <v>29.619</v>
@@ -8378,12 +8371,9 @@
         <v>90.056801613616571</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="22" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>54.589700000000001</v>
@@ -8416,7 +8406,7 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D18" s="30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E18" s="30"/>
     </row>
@@ -8430,7 +8420,7 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>18.9511</v>
@@ -8441,7 +8431,7 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2">
         <v>30.892777777777699</v>
@@ -8452,7 +8442,7 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>47.598500000000001</v>

--- a/Comparison.xlsx
+++ b/Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebasaluuclm-my.sharepoint.com/personal/elisa_jimenez_uclm_es/Documents/Elisa/Estudio instagram/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_54B32216BAFD86A3B026F5EC6513BB16F02788D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C46187D0-D048-41ED-9CED-C2BAA7272749}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="11_54B32216BAFD86A3B026F5EC6513BB16F02788D9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E62CE8A-C5CA-49B4-97DC-C202902D544F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablet comparison" sheetId="1" r:id="rId1"/>
@@ -1806,11 +1806,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$N$10</c:f>
+              <c:f>'Tablet comparison'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Action7</c:v>
+                  <c:v>Action11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1827,7 +1827,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tablet comparison'!$O$6:$P$6</c:f>
+              <c:f>'Tablet comparison'!$D$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1841,7 +1841,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tablet comparison'!$O$10:$P$10</c:f>
+              <c:f>'Tablet comparison'!$D$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1865,11 +1865,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$N$14</c:f>
+              <c:f>'Tablet comparison'!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Action11</c:v>
+                  <c:v>Action7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1886,7 +1886,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tablet comparison'!$O$6:$P$6</c:f>
+              <c:f>'Tablet comparison'!$D$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1900,7 +1900,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tablet comparison'!$O$14:$P$14</c:f>
+              <c:f>'Tablet comparison'!$D$26:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1915,7 +1915,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-721B-4F80-B686-D804ABBFB7FF}"/>
+              <c16:uniqueId val="{00000000-A9EB-491A-A334-5FCC3BF51717}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2141,11 +2141,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$N$9</c:f>
+              <c:f>'Tablet comparison'!$C$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Action2</c:v>
+                  <c:v>Action9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2162,7 +2162,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tablet comparison'!$O$6:$P$6</c:f>
+              <c:f>'Tablet comparison'!$D$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2176,7 +2176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tablet comparison'!$O$9:$P$9</c:f>
+              <c:f>'Tablet comparison'!$D$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2200,11 +2200,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$N$13</c:f>
+              <c:f>'Tablet comparison'!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Action9</c:v>
+                  <c:v>Action2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2221,7 +2221,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tablet comparison'!$O$6:$P$6</c:f>
+              <c:f>'Tablet comparison'!$D$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2235,7 +2235,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tablet comparison'!$O$13:$P$13</c:f>
+              <c:f>'Tablet comparison'!$D$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2250,7 +2250,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-490B-44BA-A6CF-93219A4BFFE3}"/>
+              <c16:uniqueId val="{00000000-9105-4C72-A7BD-62065E696B2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2476,11 +2476,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$N$8</c:f>
+              <c:f>'Tablet comparison'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Action1</c:v>
+                  <c:v>Action8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2497,7 +2497,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tablet comparison'!$O$6:$P$6</c:f>
+              <c:f>'Tablet comparison'!$D$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2511,7 +2511,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tablet comparison'!$O$8:$P$8</c:f>
+              <c:f>'Tablet comparison'!$D$13:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2535,11 +2535,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tablet comparison'!$N$12</c:f>
+              <c:f>'Tablet comparison'!$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Action8</c:v>
+                  <c:v>Action1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2556,7 +2556,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Tablet comparison'!$O$6:$P$6</c:f>
+              <c:f>'Tablet comparison'!$D$6:$E$6</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2570,7 +2570,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tablet comparison'!$O$12:$P$12</c:f>
+              <c:f>'Tablet comparison'!$D$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2585,7 +2585,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1C46-4F34-84FB-5BD8D9CD53F0}"/>
+              <c16:uniqueId val="{00000000-2F78-4415-AFB3-F6FC540A1504}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7662,8 +7662,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B4:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S33" sqref="S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8247,7 +8247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
